--- a/results/mp/logistic/corona/confidence/168/desired-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="142">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,394 +40,406 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>disgusting</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>slash</t>
   </si>
   <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>crash</t>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>infected</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>sick</t>
   </si>
   <si>
-    <t>low</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>saudi</t>
+    <t>lower</t>
   </si>
   <si>
     <t>affected</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>fight</t>
+    <t>shortage</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>relief</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>funny</t>
   </si>
   <si>
-    <t>well</t>
+    <t>share</t>
   </si>
   <si>
     <t>kind</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>team</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>check</t>
+    <t>increased</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
+    <t>shop</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>?</t>
+    <t>your</t>
   </si>
   <si>
     <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -785,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,10 +805,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -854,13 +866,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -872,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -904,13 +916,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9459459459459459</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -925,16 +937,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -946,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -954,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9130434782608695</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -972,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -996,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1004,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.88</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1022,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1046,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1054,13 +1066,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8823529411764706</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1072,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1096,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1125,16 +1137,16 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1175,16 +1187,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1196,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1204,13 +1216,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8527397260273972</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C10">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1222,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K10">
-        <v>0.9302325581395349</v>
+        <v>0.9164490861618799</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1246,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1254,13 +1266,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8421052631578947</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1272,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K11">
-        <v>0.9285714285714286</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1296,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1304,13 +1316,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1322,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K12">
-        <v>0.9230769230769231</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1354,13 +1366,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1372,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K13">
-        <v>0.9216710182767625</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L13">
-        <v>353</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>353</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1396,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1404,13 +1416,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8125</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1422,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14">
-        <v>0.9166666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1446,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1454,13 +1466,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1472,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K15">
-        <v>0.9090909090909091</v>
+        <v>0.8875</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1496,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1504,13 +1516,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1522,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K16">
-        <v>0.8984375</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1546,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1554,13 +1566,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1572,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17">
-        <v>0.8962264150943396</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L17">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1596,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1604,13 +1616,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7692307692307693</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1622,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K18">
-        <v>0.8936170212765957</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1646,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1654,13 +1666,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7586206896551724</v>
+        <v>0.775</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1672,31 +1684,31 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19">
+        <v>0.8793103448275862</v>
+      </c>
+      <c r="L19">
+        <v>51</v>
+      </c>
+      <c r="M19">
+        <v>51</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>7</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L19">
-        <v>100</v>
-      </c>
-      <c r="M19">
-        <v>100</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1704,13 +1716,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1722,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K20">
-        <v>0.88125</v>
+        <v>0.875</v>
       </c>
       <c r="L20">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="M20">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1746,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1754,13 +1766,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7419354838709677</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1772,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K21">
-        <v>0.8732394366197183</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L21">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1796,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1825,7 +1837,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K22">
         <v>0.8611111111111112</v>
@@ -1875,16 +1887,16 @@
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K23">
-        <v>0.8536585365853658</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L23">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1896,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1904,13 +1916,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.717948717948718</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1922,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K24">
-        <v>0.8448275862068966</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L24">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="M24">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1946,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1954,13 +1966,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7083333333333334</v>
+        <v>0.7195767195767195</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1972,19 +1984,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K25">
-        <v>0.8421052631578947</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1996,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2004,13 +2016,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2022,19 +2034,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K26">
-        <v>0.8421052631578947</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2046,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2054,13 +2066,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6976744186046512</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C27">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2072,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K27">
-        <v>0.8235294117647058</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2096,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2104,13 +2116,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6956521739130435</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2122,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K28">
-        <v>0.8214285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2146,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2154,13 +2166,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6949152542372882</v>
+        <v>0.7073643410852714</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="D29">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2172,19 +2184,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K29">
-        <v>0.8095238095238095</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2196,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2204,13 +2216,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6878306878306878</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C30">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2222,19 +2234,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K30">
-        <v>0.8</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2246,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2254,13 +2266,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6862745098039216</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2272,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K31">
-        <v>0.7916666666666666</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2296,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2304,13 +2316,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6842105263157895</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2322,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K32">
         <v>0.7777777777777778</v>
@@ -2354,13 +2366,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6842105263157895</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2372,19 +2384,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K33">
-        <v>0.7714285714285715</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2396,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2404,13 +2416,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6666666666666666</v>
+        <v>0.6510067114093959</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2422,19 +2434,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K34">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2446,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2454,13 +2466,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6363636363636364</v>
+        <v>0.65</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2472,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K35">
-        <v>0.7617647058823529</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L35">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2496,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2504,37 +2516,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6363636363636364</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>14</v>
       </c>
-      <c r="D36">
-        <v>14</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>8</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K36">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2546,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2554,13 +2566,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.6296296296296297</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2575,16 +2587,16 @@
         <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K37">
-        <v>0.7272727272727273</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2596,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2604,38 +2616,38 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.625</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>11</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K38">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L38">
         <v>20</v>
       </c>
-      <c r="D38">
+      <c r="M38">
         <v>20</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>12</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K38">
-        <v>0.7220338983050848</v>
-      </c>
-      <c r="L38">
-        <v>213</v>
-      </c>
-      <c r="M38">
-        <v>213</v>
-      </c>
       <c r="N38">
         <v>1</v>
       </c>
@@ -2646,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2654,13 +2666,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.6174496644295302</v>
+        <v>0.5861111111111111</v>
       </c>
       <c r="C39">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="D39">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2672,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K39">
-        <v>0.72</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2696,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2704,13 +2716,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2722,19 +2734,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K40">
-        <v>0.7142857142857143</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2746,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2754,7 +2766,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="C41">
         <v>18</v>
@@ -2772,19 +2784,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K41">
-        <v>0.7112970711297071</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L41">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2796,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2804,13 +2816,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5897435897435898</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2822,19 +2834,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K42">
-        <v>0.7078651685393258</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L42">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2846,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2854,13 +2866,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5861111111111111</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C43">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2872,19 +2884,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K43">
-        <v>0.7037037037037037</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2896,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2904,13 +2916,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5769230769230769</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2922,19 +2934,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K44">
-        <v>0.696969696969697</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2946,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2954,13 +2966,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5769230769230769</v>
+        <v>0.52</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2972,19 +2984,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K45">
-        <v>0.6956521739130435</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2996,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3004,13 +3016,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.5405405405405406</v>
+        <v>0.5</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3022,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K46">
-        <v>0.6914893617021277</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L46">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3046,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3054,13 +3066,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.5277777777777778</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3072,19 +3084,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K47">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3096,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3104,13 +3116,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.52</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C48">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3122,19 +3134,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K48">
         <v>0.6666666666666666</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3146,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3154,13 +3166,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.5161290322580645</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3172,19 +3184,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K49">
-        <v>0.6538461538461539</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3196,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3204,38 +3216,38 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4838709677419355</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C50">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>26</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>51</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K50">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L50">
         <v>15</v>
       </c>
-      <c r="D50">
+      <c r="M50">
         <v>15</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>16</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K50">
-        <v>0.6461538461538462</v>
-      </c>
-      <c r="L50">
-        <v>42</v>
-      </c>
-      <c r="M50">
-        <v>42</v>
-      </c>
       <c r="N50">
         <v>1</v>
       </c>
@@ -3246,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3254,13 +3266,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4838709677419355</v>
+        <v>0.325</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3272,19 +3284,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K51">
-        <v>0.6428571428571429</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L51">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M51">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3296,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3304,13 +3316,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4821428571428572</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C52">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D52">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3322,19 +3334,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K52">
-        <v>0.6190476190476191</v>
+        <v>0.625</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3346,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3354,13 +3366,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4727272727272727</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3372,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K53">
-        <v>0.6078431372549019</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L53">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3396,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3404,13 +3416,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3253968253968254</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C54">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3422,19 +3434,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K54">
-        <v>0.6</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3446,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3454,13 +3466,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3116883116883117</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3472,19 +3484,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K55">
-        <v>0.5833333333333334</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3496,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3504,13 +3516,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1888888888888889</v>
+        <v>0.1957104557640751</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="D56">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3522,19 +3534,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K56">
-        <v>0.5806451612903226</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3546,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3554,13 +3566,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1875</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3572,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K57">
-        <v>0.5652173913043478</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3596,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3604,37 +3616,37 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1742627345844504</v>
+        <v>0.01430976430976431</v>
       </c>
       <c r="C58">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D58">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>308</v>
+        <v>2342</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K58">
-        <v>0.547945205479452</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L58">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M58">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3646,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3654,49 +3666,49 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.006117192530585963</v>
+        <v>0.01378122308354866</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1145</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K59">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="L59">
+        <v>22</v>
+      </c>
+      <c r="M59">
+        <v>22</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <v>20</v>
-      </c>
-      <c r="E59">
-        <v>0.05</v>
-      </c>
-      <c r="F59">
-        <v>0.95</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>3087</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K59">
-        <v>0.5476190476190477</v>
-      </c>
-      <c r="L59">
-        <v>23</v>
-      </c>
-      <c r="M59">
-        <v>23</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3704,13 +3716,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.005466778805719092</v>
+        <v>0.008373590982286634</v>
       </c>
       <c r="C60">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D60">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E60">
         <v>0.07000000000000001</v>
@@ -3722,19 +3734,19 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>2365</v>
+        <v>3079</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K60">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3746,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3754,37 +3766,37 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003471418653089562</v>
+        <v>0.005332715047530721</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E61">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="F61">
-        <v>0.6799999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>4306</v>
+        <v>4290</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K61">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="L61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3796,21 +3808,45 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:17">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.003817560779586096</v>
+      </c>
+      <c r="C62">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>38</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="F62">
+        <v>0.5</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>4958</v>
+      </c>
       <c r="J62" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K62">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3822,21 +3858,45 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:17">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.003104987385988744</v>
+      </c>
+      <c r="C63">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>28</v>
+      </c>
+      <c r="E63">
+        <v>0.43</v>
+      </c>
+      <c r="F63">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>5137</v>
+      </c>
       <c r="J63" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K63">
-        <v>0.5087719298245614</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L63">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M63">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3848,21 +3908,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K64">
-        <v>0.5</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L64">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M64">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3874,21 +3934,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K65">
-        <v>0.34375</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M65">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3900,21 +3960,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K66">
-        <v>0.3050847457627119</v>
+        <v>0.40625</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3926,21 +3986,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K67">
-        <v>0.2954545454545455</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3952,21 +4012,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K68">
-        <v>0.1559633027522936</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3978,21 +4038,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K69">
-        <v>0.1048387096774194</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L69">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -4004,21 +4064,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K70">
-        <v>0.0125</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M70">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -4030,59 +4090,163 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>1185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K71">
-        <v>0.005850396991224405</v>
+        <v>0.03005008347245409</v>
       </c>
       <c r="L71">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M71">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N71">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O71">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>2379</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K72">
-        <v>0.005622188905547227</v>
+        <v>0.02925045703839122</v>
       </c>
       <c r="L72">
+        <v>16</v>
+      </c>
+      <c r="M72">
+        <v>16</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K73">
+        <v>0.005997001499250375</v>
+      </c>
+      <c r="L73">
+        <v>16</v>
+      </c>
+      <c r="M73">
+        <v>21</v>
+      </c>
+      <c r="N73">
+        <v>0.76</v>
+      </c>
+      <c r="O73">
+        <v>0.24</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K74">
+        <v>0.005332239540607055</v>
+      </c>
+      <c r="L74">
+        <v>13</v>
+      </c>
+      <c r="M74">
+        <v>20</v>
+      </c>
+      <c r="N74">
+        <v>0.65</v>
+      </c>
+      <c r="O74">
+        <v>0.35</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K75">
+        <v>0.003817560779586096</v>
+      </c>
+      <c r="L75">
+        <v>19</v>
+      </c>
+      <c r="M75">
+        <v>38</v>
+      </c>
+      <c r="N75">
+        <v>0.5</v>
+      </c>
+      <c r="O75">
+        <v>0.5</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K76">
+        <v>0.003484320557491289</v>
+      </c>
+      <c r="L76">
         <v>15</v>
       </c>
-      <c r="M72">
-        <v>20</v>
-      </c>
-      <c r="N72">
-        <v>0.75</v>
-      </c>
-      <c r="O72">
-        <v>0.25</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>2653</v>
+      <c r="M76">
+        <v>38</v>
+      </c>
+      <c r="N76">
+        <v>0.39</v>
+      </c>
+      <c r="O76">
+        <v>0.61</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>4290</v>
       </c>
     </row>
   </sheetData>
